--- a/member_data.xlsx
+++ b/member_data.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="داده‌ها" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,100 +413,100 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>يزير</t>
+          <t>نام</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ربر</t>
+          <t>فامیلی</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>رب</t>
+          <t>نام پدر</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>116560</t>
+          <t>کد ملی</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>شناسه بسیج</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>فعال</t>
+          <t>وضعیت عضویت</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>روز تولد</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>ماه تولد</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>سال تولد</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>روز عضویت</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>ماه عضویت</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>سال عضویت</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>قبق</t>
+          <t>اميررضا</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ربرببببز</t>
+          <t>عرب</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>زق</t>
+          <t>علي</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>0411</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>9987</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -515,342 +516,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>1385</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>210</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ws</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>qass</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32321</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>963</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ws</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>32321</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>963</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>زي</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>بقب</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>قب</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>14444</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>بقل</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>745</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>زي</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>بقب</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>قي</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>14444</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>بقل</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>745</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>بق</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>قبقب</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>يز</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>95112</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>545</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>ضش</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>10</t>
+          <t>1404</t>
         </is>
       </c>
     </row>

--- a/member_data.xlsx
+++ b/member_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,68 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>سهيل</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>حميدي</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>علي</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>فعال</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/member_data.xlsx
+++ b/member_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,156 +454,54 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>روز تولد</t>
+          <t>تاریخ تولد</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>ماه تولد</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>سال تولد</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>روز عضویت</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>ماه عضویت</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>سال عضویت</t>
+          <t>تاریخ عضویت</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>اميررضا</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>عرب</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>علي</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0411</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9987</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>فعال</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1385</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1404</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>سهيل</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>حميدي</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>علي</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>فعال</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1380</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1390</t>
+          <t>8</t>
         </is>
       </c>
     </row>
